--- a/8020_por_familia.xlsx
+++ b/8020_por_familia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{A415CB1A-EA52-4DF8-8775-737A7FFFA5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{162BFDCD-28EF-4FEB-A8AF-0642696C7581}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{A415CB1A-EA52-4DF8-8775-737A7FFFA5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EE5F26-0FED-4FF8-A9F0-16B707E3A7B1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{14D776B5-B1A3-4F21-9C58-D41B4E86AB91}"/>
   </bookViews>
@@ -4522,7 +4522,7 @@
   <dimension ref="A1:F479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
